--- a/unittests/test_time_tables/full_time_undergraduate/4_lovs_1.xlsx
+++ b/unittests/test_time_tables/full_time_undergraduate/4_lovs_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganze\Desktop\lesgaftbot_2\lesgaft_telebot\unittests\test_time_tables\full_time_undergraduate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B2A417-393D-4992-9A18-9967ACAFBEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5D24B3-C709-4F6D-BA36-0C46EFC24CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="23.05. - 02.07." sheetId="20" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'02.05. - 21.05.'!$A$1:$P$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'02.05. - 21.05.'!$A$1:$P$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'23.05. - 02.07.'!$A$1:$P$44</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
   <si>
     <t>Проректор по учебно-воспитательной работе
 Соловьев В.Б. _____________________________</t>
@@ -1058,23 +1058,8 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1100,85 +1085,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,27 +1112,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,6 +1119,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1262,6 +1151,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1270,6 +1165,111 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1561,13 +1561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:AX2619"/>
+  <dimension ref="A1:AX2620"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="10" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:A9"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1594,73 +1594,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="13" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:30" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:30" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="80"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="99" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1704,9 +1704,9 @@
       </c>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" ht="178.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="63"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="100"/>
       <c r="D5" s="20" t="s">
         <v>48</v>
       </c>
@@ -1762,30 +1762,30 @@
       <c r="AD5" s="8"/>
     </row>
     <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="84" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="14"/>
       <c r="S6" s="8"/>
@@ -1801,24 +1801,24 @@
       <c r="AD6" s="8"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
@@ -1836,24 +1836,24 @@
       <c r="AD7" s="14"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="41"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="W8" s="14"/>
@@ -1865,25 +1865,25 @@
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
     </row>
-    <row r="9" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="55"/>
-      <c r="B9" s="57"/>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" s="83"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="58"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="36"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="W9" s="14"/>
@@ -1895,37 +1895,27 @@
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="82" t="s">
-        <v>25</v>
+    <row r="10" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="83"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="29" t="s">
+        <v>4</v>
       </c>
-      <c r="B10" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="72"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
@@ -1935,84 +1925,97 @@
       <c r="AC10" s="14"/>
       <c r="AD10" s="14"/>
     </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="27" t="s">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+    </row>
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="87"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="27" t="s">
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="87"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="84"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="75"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="44"/>
       <c r="Q13" s="14"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
@@ -2021,25 +2024,25 @@
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
     </row>
-    <row r="14" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="85"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="29" t="s">
-        <v>4</v>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="88"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="28" t="s">
+        <v>47</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="78"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="44"/>
       <c r="Q14" s="14"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
@@ -2048,39 +2051,26 @@
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>26</v>
+    <row r="15" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="89"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="29" t="s">
+        <v>4</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="88"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="47"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
@@ -2089,24 +2079,30 @@
       <c r="AD15" s="14"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="27" t="s">
-        <v>45</v>
+      <c r="A16" s="69" t="s">
+        <v>26</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="90"/>
+      <c r="B16" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
@@ -2122,59 +2118,59 @@
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
     </row>
-    <row r="17" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="34"/>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="69"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+    </row>
+    <row r="18" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="69"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-    </row>
-    <row r="18" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="90"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="53"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -2190,25 +2186,25 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="29" t="s">
-        <v>4</v>
+    <row r="19" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="69"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="28" t="s">
+        <v>47</v>
       </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="53"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -2224,66 +2220,66 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+    <row r="20" spans="1:30" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="70"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B21" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D21" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="80"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="59"/>
       <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
@@ -2298,24 +2294,24 @@
       <c r="AD21" s="14"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="80"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="62"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
@@ -2331,59 +2327,59 @@
       <c r="AC22" s="14"/>
       <c r="AD22" s="14"/>
     </row>
-    <row r="23" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="28" t="s">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+    </row>
+    <row r="24" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-    </row>
-    <row r="24" spans="1:30" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="100"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="62"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -2399,66 +2395,66 @@
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:30" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B26" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C26" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D26" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="75"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="41"/>
       <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
@@ -2469,24 +2465,24 @@
       <c r="AD26" s="14"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="75"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="44"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
@@ -2503,24 +2499,24 @@
       <c r="AD27" s="14"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="28" t="s">
-        <v>47</v>
+      <c r="A28" s="69"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="27" t="s">
+        <v>46</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="75"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="44"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
@@ -2536,25 +2532,25 @@
       <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
     </row>
-    <row r="29" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="29" t="s">
-        <v>4</v>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="69"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="28" t="s">
+        <v>47</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="78"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="44"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
@@ -2570,32 +2566,31 @@
       <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
-        <v>29</v>
+    <row r="30" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="70"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="29" t="s">
+        <v>4</v>
       </c>
-      <c r="B30" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="96"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="47"/>
       <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
@@ -2606,25 +2601,31 @@
       <c r="AD30" s="14"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="27" t="s">
-        <v>45</v>
+      <c r="A31" s="74" t="s">
+        <v>29</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
-      <c r="V31" s="14"/>
+      <c r="B31" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="14"/>
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
@@ -2635,25 +2636,24 @@
       <c r="AD31" s="14"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
-      <c r="D32" s="97"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="14"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="62"/>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
       <c r="X32" s="14"/>
@@ -2665,24 +2665,24 @@
       <c r="AD32" s="14"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="28" t="s">
-        <v>47</v>
+      <c r="A33" s="75"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="27" t="s">
+        <v>46</v>
       </c>
-      <c r="D33" s="97"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="80"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="62"/>
       <c r="Q33" s="14"/>
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
@@ -2694,25 +2694,25 @@
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
     </row>
-    <row r="34" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="47"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="29" t="s">
-        <v>4</v>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A34" s="76"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="28" t="s">
+        <v>47</v>
       </c>
-      <c r="D34" s="98"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="100"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="62"/>
       <c r="Q34" s="14"/>
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
@@ -2724,13 +2724,13 @@
       <c r="AC34" s="14"/>
       <c r="AD34" s="14"/>
     </row>
-    <row r="35" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64" t="s">
-        <v>43</v>
+    <row r="35" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="77"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="29" t="s">
+        <v>4</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="64"/>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -2742,125 +2742,125 @@
       <c r="M35" s="64"/>
       <c r="N35" s="64"/>
       <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="15"/>
-      <c r="AG35" s="15"/>
-      <c r="AH35" s="15"/>
-      <c r="AI35" s="15"/>
-      <c r="AJ35" s="15"/>
-      <c r="AK35" s="15"/>
-      <c r="AL35" s="15"/>
-      <c r="AM35" s="15"/>
-      <c r="AN35" s="15"/>
-      <c r="AO35" s="15"/>
-      <c r="AP35" s="15"/>
-      <c r="AQ35" s="15"/>
-      <c r="AR35" s="15"/>
-      <c r="AS35" s="15"/>
-      <c r="AT35" s="15"/>
-      <c r="AU35" s="15"/>
-      <c r="AV35" s="15"/>
-      <c r="AW35" s="15"/>
-      <c r="AX35" s="15"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
     </row>
     <row r="36" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+    </row>
+    <row r="37" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="18"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="18"/>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
-      <c r="AL36" s="18"/>
-      <c r="AM36" s="18"/>
-      <c r="AN36" s="18"/>
-      <c r="AO36" s="18"/>
-      <c r="AP36" s="18"/>
-      <c r="AQ36" s="18"/>
-      <c r="AR36" s="18"/>
-      <c r="AS36" s="18"/>
-      <c r="AT36" s="18"/>
-      <c r="AU36" s="18"/>
-      <c r="AV36" s="18"/>
-      <c r="AW36" s="18"/>
-      <c r="AX36" s="18"/>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="14"/>
-      <c r="AD37" s="14"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="18"/>
+      <c r="AL37" s="18"/>
+      <c r="AM37" s="18"/>
+      <c r="AN37" s="18"/>
+      <c r="AO37" s="18"/>
+      <c r="AP37" s="18"/>
+      <c r="AQ37" s="18"/>
+      <c r="AR37" s="18"/>
+      <c r="AS37" s="18"/>
+      <c r="AT37" s="18"/>
+      <c r="AU37" s="18"/>
+      <c r="AV37" s="18"/>
+      <c r="AW37" s="18"/>
+      <c r="AX37" s="18"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C38" s="17"/>
@@ -2947,6 +2947,10 @@
       <c r="X40" s="19"/>
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C41" s="17"/>
@@ -2975,19 +2979,30 @@
       <c r="Z41" s="19"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
@@ -13363,34 +13378,38 @@
       <c r="E2619" s="2"/>
       <c r="F2619" s="2"/>
     </row>
+    <row r="2620" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E2620" s="2"/>
+      <c r="F2620" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A35:U35"/>
-    <mergeCell ref="A36:U36"/>
-    <mergeCell ref="D6:P9"/>
-    <mergeCell ref="D10:P14"/>
-    <mergeCell ref="D15:P19"/>
-    <mergeCell ref="D20:P24"/>
-    <mergeCell ref="D25:P29"/>
-    <mergeCell ref="D30:P34"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A36:U36"/>
+    <mergeCell ref="A37:U37"/>
+    <mergeCell ref="D6:P10"/>
+    <mergeCell ref="D11:P15"/>
+    <mergeCell ref="D16:P20"/>
+    <mergeCell ref="D21:P25"/>
+    <mergeCell ref="D26:P30"/>
+    <mergeCell ref="D31:P35"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="8" scale="10" fitToHeight="3" orientation="landscape" r:id="rId1"/>
@@ -13433,73 +13452,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="13" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:30" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:30" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="80"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="99" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -13543,9 +13562,9 @@
       </c>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" ht="178.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="63"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="100"/>
       <c r="D5" s="20" t="s">
         <v>48</v>
       </c>
@@ -13601,30 +13620,30 @@
       <c r="AD5" s="8"/>
     </row>
     <row r="6" spans="1:30" s="9" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="84" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="14"/>
       <c r="S6" s="8"/>
@@ -13640,24 +13659,24 @@
       <c r="AD6" s="8"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
@@ -13675,24 +13694,24 @@
       <c r="AD7" s="14"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="41"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="W8" s="14"/>
@@ -13705,24 +13724,24 @@
       <c r="AD8" s="14"/>
     </row>
     <row r="9" spans="1:30" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="55"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="58"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="39"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="W9" s="14"/>
@@ -13735,30 +13754,30 @@
       <c r="AD9" s="14"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="78" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="72"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="41"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
@@ -13775,24 +13794,24 @@
       <c r="AD10" s="14"/>
     </row>
     <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="75"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="44"/>
       <c r="Q11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
@@ -13807,24 +13826,24 @@
       <c r="AD11" s="8"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="75"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="44"/>
       <c r="Q12" s="14"/>
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
@@ -13834,24 +13853,24 @@
       <c r="AD12" s="14"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="84"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="75"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="44"/>
       <c r="Q13" s="14"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
@@ -13861,24 +13880,24 @@
       <c r="AD13" s="14"/>
     </row>
     <row r="14" spans="1:30" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="85"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="78"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="47"/>
       <c r="Q14" s="14"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
@@ -13888,30 +13907,30 @@
       <c r="AD14" s="14"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="72" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="88"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
@@ -13928,24 +13947,24 @@
       <c r="AD15" s="14"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="90"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="53"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
@@ -13962,24 +13981,24 @@
       <c r="AD16" s="14"/>
     </row>
     <row r="17" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="90"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -13996,24 +14015,24 @@
       <c r="AD17" s="8"/>
     </row>
     <row r="18" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="90"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="53"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -14030,24 +14049,24 @@
       <c r="AD18" s="8"/>
     </row>
     <row r="19" spans="1:30" s="9" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="56"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -14064,30 +14083,30 @@
       <c r="AD19" s="8"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="96"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="59"/>
       <c r="Q20" s="14"/>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
@@ -14103,24 +14122,24 @@
       <c r="AD20" s="14"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="80"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="62"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
@@ -14137,24 +14156,24 @@
       <c r="AD21" s="14"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="80"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="62"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
@@ -14171,24 +14190,24 @@
       <c r="AD22" s="14"/>
     </row>
     <row r="23" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="80"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="62"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -14205,24 +14224,24 @@
       <c r="AD23" s="8"/>
     </row>
     <row r="24" spans="1:30" s="9" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="100"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="65"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -14239,30 +14258,30 @@
       <c r="AD24" s="8"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="72"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="41"/>
       <c r="Q25" s="14"/>
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
@@ -14274,24 +14293,24 @@
       <c r="AD25" s="14"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="75"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="44"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
@@ -14308,24 +14327,24 @@
       <c r="AD26" s="14"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="75"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="44"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
@@ -14342,24 +14361,24 @@
       <c r="AD27" s="14"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="75"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="44"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
@@ -14376,24 +14395,24 @@
       <c r="AD28" s="14"/>
     </row>
     <row r="29" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="78"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="47"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
@@ -14410,30 +14429,30 @@
       <c r="AD29" s="14"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="78" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="96"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="59"/>
       <c r="Q30" s="14"/>
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
@@ -14445,24 +14464,24 @@
       <c r="AD30" s="14"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="62"/>
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
@@ -14474,24 +14493,24 @@
       <c r="AD31" s="14"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="97"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="80"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="62"/>
       <c r="Q32" s="14"/>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
@@ -14504,24 +14523,24 @@
       <c r="AD32" s="14"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="97"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="80"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="62"/>
       <c r="Q33" s="14"/>
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
@@ -14534,24 +14553,24 @@
       <c r="AD33" s="14"/>
     </row>
     <row r="34" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="47"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="98"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="100"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="65"/>
       <c r="Q34" s="14"/>
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
@@ -14564,29 +14583,29 @@
       <c r="AD34" s="14"/>
     </row>
     <row r="35" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
@@ -14618,29 +14637,29 @@
       <c r="AX35" s="15"/>
     </row>
     <row r="36" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
       <c r="V36" s="18"/>
       <c r="W36" s="18"/>
       <c r="X36" s="18"/>
@@ -25204,24 +25223,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="D6:P9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="D10:P14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="D15:P19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:P24"/>
     <mergeCell ref="A35:U35"/>
     <mergeCell ref="A36:U36"/>
     <mergeCell ref="A25:A29"/>
@@ -25230,6 +25231,24 @@
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="D30:P34"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="D15:P19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:P24"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="D6:P9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="D10:P14"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="8" scale="10" fitToHeight="3" orientation="landscape" r:id="rId1"/>
